--- a/WorktimeFact_template.xlsx
+++ b/WorktimeFact_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E385807C-1A2A-4A75-ACA8-AB8011D64446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26BE421-2169-4A99-AE54-3C28D63E2953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1520" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="380" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -49,13 +49,7 @@
     <t>ЦО-ЦО3558</t>
   </si>
   <si>
-    <t>2023-08-24 09:00:00</t>
-  </si>
-  <si>
     <t>America/Chicago</t>
-  </si>
-  <si>
-    <t>2023-08-24 18:00:00</t>
   </si>
 </sst>
 </file>
@@ -96,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -405,10 +400,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -440,17 +439,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>45193.375</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="2">
+        <v>45193.75</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>0</v>
